--- a/programs/autoencoder/data/reinforce_enc.xlsx
+++ b/programs/autoencoder/data/reinforce_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1201755478978157</v>
+        <v>0.178936094045639</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1618490219116211</v>
+        <v>-0.166434034705162</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1395582109689713</v>
+        <v>-0.4824622273445129</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0973038449883461</v>
+        <v>0.18141770362854</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1540308892726898</v>
+        <v>-0.1989438384771347</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1428782045841217</v>
+        <v>-0.5183958411216736</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.07467187196016312</v>
+        <v>0.2775713801383972</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.133403867483139</v>
+        <v>-0.09723331034183502</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1394700706005096</v>
+        <v>-0.4375750422477722</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.03877166658639908</v>
+        <v>0.2715144157409668</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.08944764733314514</v>
+        <v>-0.324627161026001</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1095350161194801</v>
+        <v>-0.6541893482208252</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.03350625932216644</v>
+        <v>0.2415023148059845</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.074101522564888</v>
+        <v>-0.3953831791877747</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09986697137355804</v>
+        <v>-0.7177051901817322</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0467773973941803</v>
+        <v>0.291020393371582</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07552430778741837</v>
+        <v>-0.4489846229553223</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.08027695864439011</v>
+        <v>-0.7764052748680115</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.04216050356626511</v>
+        <v>0.283479630947113</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.06563557684421539</v>
+        <v>-0.4604921936988831</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06428292393684387</v>
+        <v>-0.8640009760856628</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.06970992684364319</v>
+        <v>0.3638250231742859</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.08446728438138962</v>
+        <v>-0.4306740164756775</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.06558720022439957</v>
+        <v>-0.8039366602897644</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.07539286464452744</v>
+        <v>0.350651741027832</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.08691157400608063</v>
+        <v>-0.455858051776886</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0654204785823822</v>
+        <v>-0.8519912362098694</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1040589660406113</v>
+        <v>0.3370762467384338</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1093007028102875</v>
+        <v>-0.3310218453407288</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07691728323698044</v>
+        <v>-0.6567251086235046</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1130374893546104</v>
+        <v>0.4471530616283417</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1175550669431686</v>
+        <v>-0.298076331615448</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.08033812791109085</v>
+        <v>-0.6328719258308411</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1114092171192169</v>
+        <v>0.4236357808113098</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.118852861225605</v>
+        <v>-0.2618478536605835</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08915881812572479</v>
+        <v>-0.6146953701972961</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1016120761632919</v>
+        <v>0.3777502179145813</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1316585689783096</v>
+        <v>-0.1659633964300156</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1251954883337021</v>
+        <v>-0.5945952534675598</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.09437443315982819</v>
+        <v>0.4267036616802216</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1309205591678619</v>
+        <v>-0.08002327382564545</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1343092173337936</v>
+        <v>-0.4759867191314697</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.08792266249656677</v>
+        <v>0.4394238293170929</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1328758150339127</v>
+        <v>-0.07272295653820038</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1231268346309662</v>
+        <v>-0.627799391746521</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.11313296854496</v>
+        <v>0.4575673341751099</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1319396793842316</v>
+        <v>-0.02689920365810394</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1074072122573853</v>
+        <v>-0.5863186717033386</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.09827335178852081</v>
+        <v>0.4523195326328278</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1273490786552429</v>
+        <v>-0.05061466991901398</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1062079444527626</v>
+        <v>-0.5913128852844238</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1083195358514786</v>
+        <v>0.4519860446453094</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1404917538166046</v>
+        <v>-0.02266891300678253</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.114286407828331</v>
+        <v>-0.6042160987854004</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.08329090476036072</v>
+        <v>0.4601701200008392</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1372968107461929</v>
+        <v>-0.04539336264133453</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1254802793264389</v>
+        <v>-0.5688393115997314</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.04396990314126015</v>
+        <v>0.407944530248642</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1026089191436768</v>
+        <v>-0.01478657126426697</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1248771697282791</v>
+        <v>-0.4304371476173401</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.05333086848258972</v>
+        <v>0.351901650428772</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1041078120470047</v>
+        <v>0.1016301065683365</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1401024758815765</v>
+        <v>-0.2822422385215759</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0442449077963829</v>
+        <v>0.3221435248851776</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1002547442913055</v>
+        <v>0.135815367102623</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1498401314020157</v>
+        <v>-0.2337129861116409</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.04362074285745621</v>
+        <v>0.3187474310398102</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1013201251626015</v>
+        <v>0.1103074252605438</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1388833075761795</v>
+        <v>-0.2029247581958771</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.04504233226180077</v>
+        <v>0.4355404675006866</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1051710247993469</v>
+        <v>0.08627401292324066</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1329432725906372</v>
+        <v>-0.2494873404502869</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.05516268312931061</v>
+        <v>0.3909355700016022</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.09673236310482025</v>
+        <v>0.06564876437187195</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1180356740951538</v>
+        <v>-0.2769684791564941</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.04965449124574661</v>
+        <v>0.6507461071014404</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.08388408273458481</v>
+        <v>-0.04016207158565521</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1010972335934639</v>
+        <v>-0.3073577582836151</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.04970070719718933</v>
+        <v>0.7036923170089722</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0704021230340004</v>
+        <v>-0.06443671882152557</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.07918933033943176</v>
+        <v>-0.3204181790351868</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.03246776759624481</v>
+        <v>0.7612966299057007</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.06685075163841248</v>
+        <v>-0.08697767555713654</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.08429665118455887</v>
+        <v>-0.3513098955154419</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.03595307841897011</v>
+        <v>0.744810938835144</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.06641262024641037</v>
+        <v>-0.05163387954235077</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.07266629487276077</v>
+        <v>-0.3240193128585815</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0325416624546051</v>
+        <v>0.596286416053772</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.06604208052158356</v>
+        <v>-0.016842320561409</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.07135077565908432</v>
+        <v>-0.3105297088623047</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.03202715516090393</v>
+        <v>0.4837469160556793</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.09762679785490036</v>
+        <v>0.04580540955066681</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1203028187155724</v>
+        <v>-0.338851273059845</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.03437528759241104</v>
+        <v>0.5989954471588135</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.07983991503715515</v>
+        <v>0.04915390908718109</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1038343235850334</v>
+        <v>-0.6285637021064758</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.03637615591287613</v>
+        <v>0.5655996799468994</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.08429086953401566</v>
+        <v>0.06186927855014801</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.09525309503078461</v>
+        <v>-0.6849978566169739</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.04308092221617699</v>
+        <v>0.6293295621871948</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.08318406343460083</v>
+        <v>0.01545394957065582</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.08637218177318573</v>
+        <v>-0.7553377747535706</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.06389674544334412</v>
+        <v>0.6646741628646851</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1013266891241074</v>
+        <v>-0.009403809905052185</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.09769191592931747</v>
+        <v>-0.7810219526290894</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.06328210234642029</v>
+        <v>0.6698682308197021</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.09797447174787521</v>
+        <v>0.01136411726474762</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.09537967294454575</v>
+        <v>-0.738470733165741</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.07454614341259003</v>
+        <v>0.7100943326950073</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1113895177841187</v>
+        <v>0.0004049390554428101</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.106427863240242</v>
+        <v>-0.7771884799003601</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.05092120170593262</v>
+        <v>0.7798895835876465</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.08984915912151337</v>
+        <v>-0.1533349603414536</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0911412239074707</v>
+        <v>-0.7270688414573669</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0328119583427906</v>
+        <v>0.8687622547149658</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.07191891968250275</v>
+        <v>-0.2218681126832962</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.09041285514831543</v>
+        <v>-0.6808615326881409</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.04261898994445801</v>
+        <v>0.9221172332763672</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.08015657961368561</v>
+        <v>-0.3094028830528259</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0831407904624939</v>
+        <v>-0.7185893654823303</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.06094218790531158</v>
+        <v>0.9531329870223999</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0821489691734314</v>
+        <v>-0.3574806451797485</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.07801428437232971</v>
+        <v>-0.7805884480476379</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0666755735874176</v>
+        <v>0.8599791526794434</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.08180916309356689</v>
+        <v>-0.4120665788650513</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.08112512528896332</v>
+        <v>-1.049787640571594</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.06992730498313904</v>
+        <v>0.8180745840072632</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.06710854917764664</v>
+        <v>-0.3659564256668091</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.05642394348978996</v>
+        <v>-1.083860516548157</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.088992640376091</v>
+        <v>0.945648193359375</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.06657524406909943</v>
+        <v>-0.4281942248344421</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.05672232061624527</v>
+        <v>-1.075856566429138</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.08469778299331665</v>
+        <v>0.8715804815292358</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.07764077931642532</v>
+        <v>-0.3569758534431458</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.06990915536880493</v>
+        <v>-1.168548464775085</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.09375203400850296</v>
+        <v>0.9882961511611938</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.09693994373083115</v>
+        <v>-0.3470960855484009</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.07411106675863266</v>
+        <v>-0.9813703894615173</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.07029400765895844</v>
+        <v>1.051841855049133</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.07090798020362854</v>
+        <v>-0.2389230579137802</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.07819110155105591</v>
+        <v>-0.8876039385795593</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.05775264278054237</v>
+        <v>0.9668692350387573</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.05256309360265732</v>
+        <v>-0.2225477546453476</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.05713572353124619</v>
+        <v>-0.933409571647644</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.07178063690662384</v>
+        <v>0.9968951940536499</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.06577280163764954</v>
+        <v>-0.2068318575620651</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.05831669270992279</v>
+        <v>-0.8586738705635071</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.07958170771598816</v>
+        <v>1.070541262626648</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.06971831619739532</v>
+        <v>-0.2039009481668472</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0647691935300827</v>
+        <v>-0.7884002327919006</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.06822787225246429</v>
+        <v>1.137844681739807</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.06076914817094803</v>
+        <v>-0.2281057387590408</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.06643783301115036</v>
+        <v>-0.7477195262908936</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.05878489464521408</v>
+        <v>1.140599966049194</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.05384629592299461</v>
+        <v>-0.2260506302118301</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0616140179336071</v>
+        <v>-0.6641116738319397</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.07063176482915878</v>
+        <v>1.122908353805542</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.05759322270750999</v>
+        <v>-0.1094414740800858</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.05694111064076424</v>
+        <v>-0.5474956631660461</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.07172512263059616</v>
+        <v>1.065961122512817</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.08037019520998001</v>
+        <v>0.002906814217567444</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.07929778844118118</v>
+        <v>-0.6040595769882202</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.05975722521543503</v>
+        <v>0.9516727924346924</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.08822186291217804</v>
+        <v>0.1057860627770424</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.09892588108778</v>
+        <v>-0.6663693785667419</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.06241209805011749</v>
+        <v>1.105401992797852</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.09459708631038666</v>
+        <v>-0.05639733374118805</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1026440784335136</v>
+        <v>-0.6121810078620911</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.05309751257300377</v>
+        <v>0.8859838247299194</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.09242016822099686</v>
+        <v>0.1787731945514679</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.1035727486014366</v>
+        <v>-0.5900443196296692</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.05743942409753799</v>
+        <v>0.921612024307251</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.09365132451057434</v>
+        <v>0.2325045168399811</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.09490210562944412</v>
+        <v>-0.647679328918457</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.08209744095802307</v>
+        <v>0.8942992687225342</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1037093549966812</v>
+        <v>0.2515676021575928</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.09453283995389938</v>
+        <v>-0.6551740169525146</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.07689181715250015</v>
+        <v>0.8098882436752319</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.08455622941255569</v>
+        <v>0.2849580645561218</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.08019189536571503</v>
+        <v>-0.6408789753913879</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.07069322466850281</v>
+        <v>0.5834282636642456</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.0845680832862854</v>
+        <v>0.4713101387023926</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.07117611914873123</v>
+        <v>-0.7744304537773132</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.05856037512421608</v>
+        <v>0.6709010601043701</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.06955894827842712</v>
+        <v>0.4365313649177551</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.06667904555797577</v>
+        <v>-0.8173350691795349</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.05452679470181465</v>
+        <v>0.7588937282562256</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.07300018519163132</v>
+        <v>0.4113500714302063</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.06378641724586487</v>
+        <v>-0.8139663338661194</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.04569065943360329</v>
+        <v>0.711530327796936</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.08876954019069672</v>
+        <v>0.5013996362686157</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.08070699870586395</v>
+        <v>-0.9118871092796326</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.05016951635479927</v>
+        <v>0.6436679363250732</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.08152049779891968</v>
+        <v>0.4955852031707764</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.07438371330499649</v>
+        <v>-0.8894711136817932</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.04542752355337143</v>
+        <v>0.6059545278549194</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.07703108340501785</v>
+        <v>0.562329113483429</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.07091118395328522</v>
+        <v>-0.8777825236320496</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.04762588441371918</v>
+        <v>0.5875649452209473</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.07922758162021637</v>
+        <v>0.5484282374382019</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.07569597661495209</v>
+        <v>-0.894171416759491</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.03913037478923798</v>
+        <v>0.6064525842666626</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.07310901582241058</v>
+        <v>0.6696466207504272</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.07128229737281799</v>
+        <v>-0.9047815799713135</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.06674604117870331</v>
+        <v>0.5818672180175781</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.09092444181442261</v>
+        <v>0.7555232048034668</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.07240714132785797</v>
+        <v>-0.9077968001365662</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.06026218831539154</v>
+        <v>0.5702410936355591</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.09057539701461792</v>
+        <v>0.7519211769104004</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.06134459376335144</v>
+        <v>-0.8581371307373047</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.100537121295929</v>
+        <v>0.5122320652008057</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1217583641409874</v>
+        <v>0.8807578682899475</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.0687539353966713</v>
+        <v>-0.9875678420066833</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.1085250526666641</v>
+        <v>0.503385066986084</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.143515408039093</v>
+        <v>0.9174784421920776</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.08079177886247635</v>
+        <v>-1.012733936309814</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.118901751935482</v>
+        <v>0.5285506248474121</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.1463140249252319</v>
+        <v>0.9288271069526672</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.08026240766048431</v>
+        <v>-1.073546051979065</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1010087206959724</v>
+        <v>0.6417226791381836</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.1308985501527786</v>
+        <v>0.8218098282814026</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.07105058431625366</v>
+        <v>-1.02660858631134</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.13335320353508</v>
+        <v>0.6233376264572144</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.1730981469154358</v>
+        <v>0.9486484527587891</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.09621231257915497</v>
+        <v>-1.180351614952087</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.1161560714244843</v>
+        <v>0.8018630743026733</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1618290841579437</v>
+        <v>0.9165711998939514</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.08367311954498291</v>
+        <v>-1.16993260383606</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.07350683957338333</v>
+        <v>0.9623302221298218</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1223888397216797</v>
+        <v>0.9586337804794312</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.07629183679819107</v>
+        <v>-1.152671217918396</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.05897315964102745</v>
+        <v>1.051863312721252</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.09784623980522156</v>
+        <v>0.7515855431556702</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.07431204617023468</v>
+        <v>-0.9714412689208984</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.08727509528398514</v>
+        <v>1.013978123664856</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1142486780881882</v>
+        <v>0.7625784277915955</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.07694727927446365</v>
+        <v>-1.140843629837036</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.1150261610746384</v>
+        <v>0.9628628492355347</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1425716727972031</v>
+        <v>0.9489902257919312</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.08875562995672226</v>
+        <v>-1.355586767196655</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1192796006798744</v>
+        <v>0.9021399021148682</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.163850262761116</v>
+        <v>1.031730055809021</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1062111333012581</v>
+        <v>-1.444981575012207</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.1217994764447212</v>
+        <v>0.9742194414138794</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.159328356385231</v>
+        <v>1.013548731803894</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1087046712636948</v>
+        <v>-1.477495312690735</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.1261032223701477</v>
+        <v>1.095727205276489</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1650656163692474</v>
+        <v>0.9852434396743774</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.1131944879889488</v>
+        <v>-1.520675659179688</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.06852954626083374</v>
+        <v>1.257081031799316</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.1134549677371979</v>
+        <v>0.9387107491493225</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1009515374898911</v>
+        <v>-1.318891882896423</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.05248634517192841</v>
+        <v>1.313599824905396</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.09228352457284927</v>
+        <v>0.909066915512085</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.09152680635452271</v>
+        <v>-1.291288137435913</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.07411099970340729</v>
+        <v>1.373577356338501</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.07314030826091766</v>
+        <v>0.5919156670570374</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.1121333837509155</v>
+        <v>-1.110868573188782</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.06550350785255432</v>
+        <v>1.354606509208679</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.0516582615673542</v>
+        <v>0.4803137183189392</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1061239093542099</v>
+        <v>-1.095807075500488</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.1049672216176987</v>
+        <v>1.168407082557678</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.09450820088386536</v>
+        <v>0.5148317217826843</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.1027070507407188</v>
+        <v>-1.605544924736023</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1356725096702576</v>
+        <v>1.123809933662415</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.1144379377365112</v>
+        <v>0.5061203837394714</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.1025964617729187</v>
+        <v>-1.849672794342041</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.1175086349248886</v>
+        <v>1.202108979225159</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1010105386376381</v>
+        <v>0.4539430141448975</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.1056660488247871</v>
+        <v>-1.686803936958313</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1219583973288536</v>
+        <v>1.225766897201538</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.0989287942647934</v>
+        <v>0.5455641150474548</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.1089552566409111</v>
+        <v>-1.746863484382629</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1375081241130829</v>
+        <v>1.379507780075073</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1312972456216812</v>
+        <v>0.5115276575088501</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1053160801529884</v>
+        <v>-1.603273391723633</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1567091941833496</v>
+        <v>1.415488004684448</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.1368551850318909</v>
+        <v>0.4885112643241882</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1148977130651474</v>
+        <v>-1.60956597328186</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1252744197845459</v>
+        <v>1.668418645858765</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.07755900919437408</v>
+        <v>0.3136249780654907</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1454892754554749</v>
+        <v>-1.318562150001526</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1342752873897552</v>
+        <v>1.505047917366028</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.1031050980091095</v>
+        <v>0.4932621717453003</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1394243240356445</v>
+        <v>-1.456442594528198</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1527405977249146</v>
+        <v>1.524097204208374</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.1476659178733826</v>
+        <v>0.5530896782875061</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.1268530040979385</v>
+        <v>-1.546425819396973</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1480652838945389</v>
+        <v>1.746602177619934</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1285141408443451</v>
+        <v>0.3325386643409729</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1451809704303741</v>
+        <v>-1.574588298797607</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1540802419185638</v>
+        <v>1.597850799560547</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.1545265316963196</v>
+        <v>0.2180691808462143</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.1254847645759583</v>
+        <v>-1.32124388217926</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1276143938302994</v>
+        <v>1.867456316947937</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.1241896823048592</v>
+        <v>0.1760141849517822</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1317588537931442</v>
+        <v>-1.210872888565063</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1282877027988434</v>
+        <v>1.927188396453857</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1317432671785355</v>
+        <v>0.2519353032112122</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1316185295581818</v>
+        <v>-1.388536810874939</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.09904293715953827</v>
+        <v>1.989207983016968</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.09015420824289322</v>
+        <v>0.1034279018640518</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1371604800224304</v>
+        <v>-1.198923945426941</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.09540698677301407</v>
+        <v>2.095957517623901</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.08728219568729401</v>
+        <v>0.1325776875019073</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.1190370321273804</v>
+        <v>-1.33022403717041</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1002974510192871</v>
+        <v>2.118951559066772</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.0917147770524025</v>
+        <v>0.0943576768040657</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1183606386184692</v>
+        <v>-1.41804051399231</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.07786396145820618</v>
+        <v>2.115745306015015</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.06493595242500305</v>
+        <v>0.05656412243843079</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1339541226625443</v>
+        <v>-1.453176975250244</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.08768068253993988</v>
+        <v>2.137126207351685</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.06519362330436707</v>
+        <v>0.04685588181018829</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.1342733800411224</v>
+        <v>-1.447009325027466</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.0882258415222168</v>
+        <v>2.154826879501343</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.06224469467997551</v>
+        <v>-0.05500079691410065</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1353160738945007</v>
+        <v>-1.499045968055725</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.07779926061630249</v>
+        <v>2.250550031661987</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.06508579105138779</v>
+        <v>-0.335381805896759</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.1344086974859238</v>
+        <v>-1.580115437507629</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.06219944357872009</v>
+        <v>2.100611925125122</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.04050546512007713</v>
+        <v>-0.1741301268339157</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.1388310939073563</v>
+        <v>-1.328714847564697</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.05619385838508606</v>
+        <v>2.094765186309814</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.03890533000230789</v>
+        <v>-0.2337059527635574</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1337861567735672</v>
+        <v>-1.31916868686676</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.09361471235752106</v>
+        <v>2.081545114517212</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.09261949360370636</v>
+        <v>-0.3318576812744141</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.1288132667541504</v>
+        <v>-1.517853975296021</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.09077543020248413</v>
+        <v>2.024512052536011</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.09518519043922424</v>
+        <v>-0.3673968911170959</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.129259392619133</v>
+        <v>-1.638014435768127</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.08307363092899323</v>
+        <v>2.055992126464844</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.08803099393844604</v>
+        <v>-0.4521355032920837</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1272699236869812</v>
+        <v>-1.760056853294373</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.1016092151403427</v>
+        <v>1.998942136764526</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1184118315577507</v>
+        <v>-0.4810050129890442</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1186966300010681</v>
+        <v>-1.753547430038452</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1443874686956406</v>
+        <v>1.858057618141174</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.1748287379741669</v>
+        <v>-0.4987925291061401</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.1102590784430504</v>
+        <v>-1.862156391143799</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.1522035300731659</v>
+        <v>1.860170841217041</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.180789515376091</v>
+        <v>-0.5465832948684692</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1199041083455086</v>
+        <v>-1.968960046768188</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.1478968560695648</v>
+        <v>1.882456302642822</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.1835468113422394</v>
+        <v>-0.5169907808303833</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1312035024166107</v>
+        <v>-1.880903244018555</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1399437934160233</v>
+        <v>1.965904474258423</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.1617745161056519</v>
+        <v>-0.5537899136543274</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.1163515895605087</v>
+        <v>-1.948806405067444</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1469015926122665</v>
+        <v>1.894336700439453</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.1674512773752213</v>
+        <v>-0.5503445863723755</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1343423873186111</v>
+        <v>-1.959996700286865</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.1419247984886169</v>
+        <v>1.862519264221191</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.1525783687829971</v>
+        <v>-0.5625487565994263</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.1394685655832291</v>
+        <v>-1.949676275253296</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1407926678657532</v>
+        <v>2.14968466758728</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.1507533341646194</v>
+        <v>-0.65914386510849</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1329548358917236</v>
+        <v>-2.122407913208008</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1320879310369492</v>
+        <v>2.138062238693237</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1314876675605774</v>
+        <v>-0.6698313355445862</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1311213076114655</v>
+        <v>-2.074526309967041</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.1283556520938873</v>
+        <v>2.060049295425415</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.135235607624054</v>
+        <v>-0.6283884644508362</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.1190067231655121</v>
+        <v>-2.080207824707031</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1360602974891663</v>
+        <v>1.991013526916504</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.1565588265657425</v>
+        <v>-0.635475754737854</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.1275878548622131</v>
+        <v>-2.004837512969971</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1419758051633835</v>
+        <v>1.947823166847229</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.1643724292516708</v>
+        <v>-0.6243572235107422</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1251547783613205</v>
+        <v>-1.977511048316956</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1377002596855164</v>
+        <v>1.934730291366577</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1611100733280182</v>
+        <v>-0.6512508988380432</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.1187658309936523</v>
+        <v>-2.133143663406372</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.1375225931406021</v>
+        <v>2.054542064666748</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.1628053188323975</v>
+        <v>-0.6959797739982605</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.121495358645916</v>
+        <v>-2.133141279220581</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1375814974308014</v>
+        <v>2.119248151779175</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.1595500260591507</v>
+        <v>-0.7113654017448425</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1222074776887894</v>
+        <v>-2.109015464782715</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.136477068066597</v>
+        <v>2.139919757843018</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.1458135098218918</v>
+        <v>-0.7058632969856262</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.1329021155834198</v>
+        <v>-2.128501415252686</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.1478671878576279</v>
+        <v>2.227530241012573</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.15969218313694</v>
+        <v>-0.7237106561660767</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.1443992704153061</v>
+        <v>-2.140753984451294</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.1447855830192566</v>
+        <v>2.409731864929199</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.1554245054721832</v>
+        <v>-0.7605178952217102</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.1252478063106537</v>
+        <v>-2.051362037658691</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.1410564482212067</v>
+        <v>2.502472162246704</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1566675901412964</v>
+        <v>-0.7927349209785461</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1218598634004593</v>
+        <v>-2.0571448802948</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.137099415063858</v>
+        <v>2.371941804885864</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.150568038225174</v>
+        <v>-0.7566292285919189</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1177347004413605</v>
+        <v>-2.257391214370728</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.1544486433267593</v>
+        <v>2.245305061340332</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1775296032428741</v>
+        <v>-0.7446570992469788</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1254074275493622</v>
+        <v>-2.312194108963013</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.169234499335289</v>
+        <v>2.215878248214722</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.1937697529792786</v>
+        <v>-0.7456814050674438</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.1396036446094513</v>
+        <v>-2.46090841293335</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1505926698446274</v>
+        <v>2.406137704849243</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.1600457280874252</v>
+        <v>-0.7668793201446533</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.1309159100055695</v>
+        <v>-2.431619644165039</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.1512180268764496</v>
+        <v>2.510421752929688</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.1592731177806854</v>
+        <v>-0.8059923052787781</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1322212964296341</v>
+        <v>-2.437516689300537</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.1449969857931137</v>
+        <v>2.371706485748291</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.1433750241994858</v>
+        <v>-0.7081500887870789</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1328755021095276</v>
+        <v>-2.587851047515869</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.1549596339464188</v>
+        <v>2.230513334274292</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1386752128601074</v>
+        <v>-0.5172811150550842</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.1295080780982971</v>
+        <v>-2.737181901931763</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.1558590680360794</v>
+        <v>2.208359956741333</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1524293422698975</v>
+        <v>-0.5011698007583618</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.1325426697731018</v>
+        <v>-2.768615245819092</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.1493391096591949</v>
+        <v>2.538369178771973</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.1444172859191895</v>
+        <v>-0.7621832489967346</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1404977738857269</v>
+        <v>-2.708658218383789</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.1543636918067932</v>
+        <v>2.694767475128174</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.1452051103115082</v>
+        <v>-0.8469465374946594</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.1500636339187622</v>
+        <v>-2.77759313583374</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.1526815295219421</v>
+        <v>2.586482286453247</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1404353231191635</v>
+        <v>-0.7957584261894226</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.1529666781425476</v>
+        <v>-2.909125566482544</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.1672729998826981</v>
+        <v>2.653592586517334</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.1628909260034561</v>
+        <v>-0.7129068374633789</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1317562162876129</v>
+        <v>-2.965031623840332</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.1814672946929932</v>
+        <v>2.676716089248657</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.1840323656797409</v>
+        <v>-0.5575617551803589</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.13984514772892</v>
+        <v>-3.114530563354492</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.1782200038433075</v>
+        <v>2.664466857910156</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.1916760057210922</v>
+        <v>-0.5649861097335815</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.1429342180490494</v>
+        <v>-3.10509991645813</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.165076956152916</v>
+        <v>2.777383089065552</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.1804706454277039</v>
+        <v>-0.6529311537742615</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1316739022731781</v>
+        <v>-3.063712120056152</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1663780957460403</v>
+        <v>2.751320838928223</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.1709385365247726</v>
+        <v>-0.7186872363090515</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1206181347370148</v>
+        <v>-2.917827367782593</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.1663816720247269</v>
+        <v>2.77143120765686</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.1600683629512787</v>
+        <v>-0.6045436859130859</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.131961315870285</v>
+        <v>-3.055899143218994</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1707631200551987</v>
+        <v>2.934241771697998</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1670891046524048</v>
+        <v>-0.7408345341682434</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1209997460246086</v>
+        <v>-2.984146356582642</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1754053086042404</v>
+        <v>3.164845705032349</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.1603337526321411</v>
+        <v>-0.9324449896812439</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.1360193490982056</v>
+        <v>-2.939590454101562</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.1815110594034195</v>
+        <v>3.160810470581055</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.1678189188241959</v>
+        <v>-0.9068151116371155</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1327104717493057</v>
+        <v>-3.059440851211548</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.1748184263706207</v>
+        <v>3.196191549301147</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.1522025167942047</v>
+        <v>-0.8938212990760803</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.149784654378891</v>
+        <v>-3.155556678771973</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.1909505575895309</v>
+        <v>3.60678768157959</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.1896553635597229</v>
+        <v>-1.080851316452026</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.1514679193496704</v>
+        <v>-3.563441038131714</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1884524524211884</v>
+        <v>3.585110902786255</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.1736078560352325</v>
+        <v>-1.058347105979919</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.1543809473514557</v>
+        <v>-3.503291130065918</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1766882836818695</v>
+        <v>3.720172166824341</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.1515866667032242</v>
+        <v>-1.121106028556824</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1639346182346344</v>
+        <v>-3.457801818847656</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.1678481996059418</v>
+        <v>3.509290456771851</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.1441323608160019</v>
+        <v>-1.039052963256836</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1610402762889862</v>
+        <v>-3.177258253097534</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.186874195933342</v>
+        <v>3.386200428009033</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.1638638377189636</v>
+        <v>-1.006986737251282</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.1526791602373123</v>
+        <v>-3.259794950485229</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.1759646534919739</v>
+        <v>3.313428163528442</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.1449187099933624</v>
+        <v>-0.898395836353302</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.1571755409240723</v>
+        <v>-3.215878963470459</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.1573879420757294</v>
+        <v>3.068010330200195</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.1349118053913116</v>
+        <v>-0.6393877267837524</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.147172212600708</v>
+        <v>-3.129066705703735</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.1744211167097092</v>
+        <v>3.14627480506897</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.1628508865833282</v>
+        <v>-0.7743510007858276</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.1366409361362457</v>
+        <v>-3.120856761932373</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.171322301030159</v>
+        <v>3.093344449996948</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.1480620950460434</v>
+        <v>-0.7925317883491516</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1406343579292297</v>
+        <v>-3.053508758544922</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.1637917011976242</v>
+        <v>2.913681507110596</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.1429034918546677</v>
+        <v>-0.5664830803871155</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1463162004947662</v>
+        <v>-3.22625994682312</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.1635475158691406</v>
+        <v>3.030044317245483</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.1410682797431946</v>
+        <v>-0.5458564162254333</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.1503887474536896</v>
+        <v>-3.177077293395996</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1634776890277863</v>
+        <v>2.785842180252075</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.1226707249879837</v>
+        <v>-0.3945473432540894</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.1548629999160767</v>
+        <v>-3.255836009979248</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.1635052859783173</v>
+        <v>2.641855955123901</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1218321695923805</v>
+        <v>-0.321606457233429</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.1672863662242889</v>
+        <v>-3.282044172286987</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.1603834480047226</v>
+        <v>2.349281549453735</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.1138569191098213</v>
+        <v>-0.1829301565885544</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.1672717183828354</v>
+        <v>-3.413933277130127</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.1543102860450745</v>
+        <v>2.330299377441406</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.1030096560716629</v>
+        <v>-0.2026196867227554</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.1679551303386688</v>
+        <v>-3.413594245910645</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.1770087033510208</v>
+        <v>2.329957246780396</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1428355276584625</v>
+        <v>-0.0733538419008255</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1754674166440964</v>
+        <v>-3.498946189880371</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.1786492168903351</v>
+        <v>2.229072093963623</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.157617449760437</v>
+        <v>-0.01590828597545624</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.1841912418603897</v>
+        <v>-3.405869007110596</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.1757248938083649</v>
+        <v>2.174641132354736</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.1570059657096863</v>
+        <v>0.04486642777919769</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1979446858167648</v>
+        <v>-3.342690944671631</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1781178712844849</v>
+        <v>2.11567234992981</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.1496429890394211</v>
+        <v>0.09588569402694702</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.192089319229126</v>
+        <v>-3.66667914390564</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.1792251318693161</v>
+        <v>2.195580720901489</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.1536969393491745</v>
+        <v>0.06150148808956146</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1920864284038544</v>
+        <v>-3.592490673065186</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.1714103519916534</v>
+        <v>2.383768320083618</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.1492792516946793</v>
+        <v>0.07684615254402161</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1751809120178223</v>
+        <v>-3.573450088500977</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.174452617764473</v>
+        <v>2.2444908618927</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.1608026623725891</v>
+        <v>0.1314138323068619</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.1671524047851562</v>
+        <v>-3.553389310836792</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.163100004196167</v>
+        <v>1.970640540122986</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.1501461118459702</v>
+        <v>0.1898845732212067</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1630187928676605</v>
+        <v>-3.293818473815918</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.1799803525209427</v>
+        <v>1.723668932914734</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.1819285154342651</v>
+        <v>0.5736056566238403</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.1736041903495789</v>
+        <v>-3.404219150543213</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1853045672178268</v>
+        <v>2.087077617645264</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.1812846064567566</v>
+        <v>0.3708588480949402</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1823728382587433</v>
+        <v>-3.662781238555908</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.1911297589540482</v>
+        <v>1.840643525123596</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.1946245729923248</v>
+        <v>0.4192807078361511</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.1887960433959961</v>
+        <v>-3.595216751098633</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.1921905428171158</v>
+        <v>1.935259580612183</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.211872011423111</v>
+        <v>0.3545823693275452</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.1871257871389389</v>
+        <v>-3.516541481018066</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.1892455220222473</v>
+        <v>1.920589089393616</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.213641345500946</v>
+        <v>0.4008700251579285</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.1903106868267059</v>
+        <v>-3.453348636627197</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.187551736831665</v>
+        <v>1.872004151344299</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.207159012556076</v>
+        <v>0.3125489354133606</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1982519924640656</v>
+        <v>-3.451898574829102</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.1712730973958969</v>
+        <v>1.829105496406555</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.1801257133483887</v>
+        <v>0.1613330245018005</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.1891065537929535</v>
+        <v>-3.296931266784668</v>
       </c>
     </row>
   </sheetData>

--- a/programs/autoencoder/data/reinforce_enc.xlsx
+++ b/programs/autoencoder/data/reinforce_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.178936094045639</v>
+        <v>2.069460868835449</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.166434034705162</v>
+        <v>-1.417961120605469</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4824622273445129</v>
+        <v>-0.7554019093513489</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.18141770362854</v>
+        <v>2.029901027679443</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1989438384771347</v>
+        <v>-1.393105268478394</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5183958411216736</v>
+        <v>-0.7651590704917908</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2775713801383972</v>
+        <v>1.931874752044678</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09723331034183502</v>
+        <v>-1.166821599006653</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4375750422477722</v>
+        <v>-0.6599159836769104</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2715144157409668</v>
+        <v>1.452485322952271</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.324627161026001</v>
+        <v>-0.950484037399292</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6541893482208252</v>
+        <v>-0.4974845051765442</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2415023148059845</v>
+        <v>1.332380056381226</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3953831791877747</v>
+        <v>-0.8911585211753845</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7177051901817322</v>
+        <v>-0.459993302822113</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.291020393371582</v>
+        <v>1.160953640937805</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4489846229553223</v>
+        <v>-0.8693726062774658</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7764052748680115</v>
+        <v>-0.4143623113632202</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.283479630947113</v>
+        <v>1.046923875808716</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4604921936988831</v>
+        <v>-0.7692127227783203</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8640009760856628</v>
+        <v>-0.2983395159244537</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3638250231742859</v>
+        <v>1.129480361938477</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4306740164756775</v>
+        <v>-0.7633869051933289</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8039366602897644</v>
+        <v>-0.2914935946464539</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.350651741027832</v>
+        <v>0.9916678667068481</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.455858051776886</v>
+        <v>-0.6477690935134888</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8519912362098694</v>
+        <v>-0.1992120146751404</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3370762467384338</v>
+        <v>1.194109082221985</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3310218453407288</v>
+        <v>-0.5795335173606873</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6567251086235046</v>
+        <v>-0.3084355592727661</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4471530616283417</v>
+        <v>1.218274474143982</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.298076331615448</v>
+        <v>-0.5761134028434753</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6328719258308411</v>
+        <v>-0.3460321426391602</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4236357808113098</v>
+        <v>1.302425980567932</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2618478536605835</v>
+        <v>-0.6180467009544373</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6146953701972961</v>
+        <v>-0.3839820325374603</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3777502179145813</v>
+        <v>1.474159836769104</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1659633964300156</v>
+        <v>-0.7087741494178772</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5945952534675598</v>
+        <v>-0.4525343477725983</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4267036616802216</v>
+        <v>1.6212477684021</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.08002327382564545</v>
+        <v>-0.8168386816978455</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4759867191314697</v>
+        <v>-0.5758827328681946</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4394238293170929</v>
+        <v>1.53391444683075</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.07272295653820038</v>
+        <v>-0.7902573347091675</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.627799391746521</v>
+        <v>-0.5758351683616638</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4575673341751099</v>
+        <v>1.70352303981781</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02689920365810394</v>
+        <v>-0.923967182636261</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5863186717033386</v>
+        <v>-0.7309675812721252</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4523195326328278</v>
+        <v>1.84282112121582</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.05061466991901398</v>
+        <v>-1.004589200019836</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5913128852844238</v>
+        <v>-0.7964099049568176</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4519860446453094</v>
+        <v>1.84371542930603</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02266891300678253</v>
+        <v>-1.014448642730713</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6042160987854004</v>
+        <v>-0.8115668892860413</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4601701200008392</v>
+        <v>1.670370697975159</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04539336264133453</v>
+        <v>-0.913176953792572</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5688393115997314</v>
+        <v>-0.7300900816917419</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.407944530248642</v>
+        <v>1.934540867805481</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.01478657126426697</v>
+        <v>-1.126092791557312</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.4304371476173401</v>
+        <v>-0.8881872892379761</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.351901650428772</v>
+        <v>2.034604787826538</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1016301065683365</v>
+        <v>-1.300994396209717</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2822422385215759</v>
+        <v>-0.9286635518074036</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3221435248851776</v>
+        <v>2.157922506332397</v>
       </c>
       <c r="C23" t="n">
-        <v>0.135815367102623</v>
+        <v>-1.346733093261719</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2337129861116409</v>
+        <v>-0.9812394976615906</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3187474310398102</v>
+        <v>2.224149703979492</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1103074252605438</v>
+        <v>-1.371610403060913</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2029247581958771</v>
+        <v>-0.9728807806968689</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4355404675006866</v>
+        <v>2.245055437088013</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08627401292324066</v>
+        <v>-1.458590507507324</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2494873404502869</v>
+        <v>-1.088138580322266</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3909355700016022</v>
+        <v>2.004496335983276</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06564876437187195</v>
+        <v>-1.420767784118652</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2769684791564941</v>
+        <v>-0.9834019541740417</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6507461071014404</v>
+        <v>2.239550590515137</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.04016207158565521</v>
+        <v>-1.757352232933044</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3073577582836151</v>
+        <v>-1.188977479934692</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7036923170089722</v>
+        <v>2.166452407836914</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.06443671882152557</v>
+        <v>-1.779696345329285</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3204181790351868</v>
+        <v>-1.179937124252319</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7612966299057007</v>
+        <v>2.058892488479614</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.08697767555713654</v>
+        <v>-1.782957673072815</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.3513098955154419</v>
+        <v>-1.161319971084595</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.744810938835144</v>
+        <v>2.202170133590698</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.05163387954235077</v>
+        <v>-1.919946193695068</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3240193128585815</v>
+        <v>-1.300613641738892</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.596286416053772</v>
+        <v>2.044916152954102</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.016842320561409</v>
+        <v>-1.753980755805969</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.3105297088623047</v>
+        <v>-1.209186315536499</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4837469160556793</v>
+        <v>2.310208320617676</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04580540955066681</v>
+        <v>-1.693051338195801</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.338851273059845</v>
+        <v>-1.204679012298584</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5989954471588135</v>
+        <v>2.046353578567505</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04915390908718109</v>
+        <v>-1.51520311832428</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6285637021064758</v>
+        <v>-1.115210294723511</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5655996799468994</v>
+        <v>1.942337274551392</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06186927855014801</v>
+        <v>-1.407126784324646</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.6849978566169739</v>
+        <v>-1.04747200012207</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6293295621871948</v>
+        <v>1.767715334892273</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01545394957065582</v>
+        <v>-1.344723105430603</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.7553377747535706</v>
+        <v>-0.9289550185203552</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6646741628646851</v>
+        <v>1.616336941719055</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.009403809905052185</v>
+        <v>-1.257814526557922</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.7810219526290894</v>
+        <v>-0.8411020636558533</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6698682308197021</v>
+        <v>1.735190987586975</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01136411726474762</v>
+        <v>-1.378142595291138</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.738470733165741</v>
+        <v>-0.9513908624649048</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7100943326950073</v>
+        <v>1.493914842605591</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0004049390554428101</v>
+        <v>-1.182206749916077</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.7771884799003601</v>
+        <v>-0.7659437656402588</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7798895835876465</v>
+        <v>1.470929265022278</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1533349603414536</v>
+        <v>-1.248363852500916</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.7270688414573669</v>
+        <v>-0.7323108315467834</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8687622547149658</v>
+        <v>1.576277852058411</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2218681126832962</v>
+        <v>-1.428540229797363</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.6808615326881409</v>
+        <v>-0.7743393778800964</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9221172332763672</v>
+        <v>1.533388257026672</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.3094028830528259</v>
+        <v>-1.47057569026947</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.7185893654823303</v>
+        <v>-0.711214542388916</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9531329870223999</v>
+        <v>1.463707566261292</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.3574806451797485</v>
+        <v>-1.46023428440094</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.7805884480476379</v>
+        <v>-0.6777403354644775</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8599791526794434</v>
+        <v>1.385424017906189</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.4120665788650513</v>
+        <v>-1.526052713394165</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.049787640571594</v>
+        <v>-0.616530179977417</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8180745840072632</v>
+        <v>1.325421929359436</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.3659564256668091</v>
+        <v>-1.621382355690002</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.083860516548157</v>
+        <v>-0.7031605243682861</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.945648193359375</v>
+        <v>1.328713059425354</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.4281942248344421</v>
+        <v>-1.618688225746155</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.075856566429138</v>
+        <v>-0.667468786239624</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8715804815292358</v>
+        <v>1.20655345916748</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.3569758534431458</v>
+        <v>-1.46600353717804</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.168548464775085</v>
+        <v>-0.6290549635887146</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9882961511611938</v>
+        <v>1.249897837638855</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.3470960855484009</v>
+        <v>-1.74983274936676</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.9813703894615173</v>
+        <v>-0.7721642255783081</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.051841855049133</v>
+        <v>1.237744450569153</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2389230579137802</v>
+        <v>-1.608929872512817</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.8876039385795593</v>
+        <v>-0.7359034419059753</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9668692350387573</v>
+        <v>1.330487966537476</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2225477546453476</v>
+        <v>-1.602052211761475</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.933409571647644</v>
+        <v>-0.7773666381835938</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9968951940536499</v>
+        <v>1.422196984291077</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2068318575620651</v>
+        <v>-1.668914437294006</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.8586738705635071</v>
+        <v>-0.8429995179176331</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.070541262626648</v>
+        <v>1.432745099067688</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.2039009481668472</v>
+        <v>-1.815114974975586</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7884002327919006</v>
+        <v>-0.8920704126358032</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.137844681739807</v>
+        <v>1.419901967048645</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.2281057387590408</v>
+        <v>-1.858151435852051</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.7477195262908936</v>
+        <v>-0.9050905704498291</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.140599966049194</v>
+        <v>1.498959064483643</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2260506302118301</v>
+        <v>-1.942221283912659</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.6641116738319397</v>
+        <v>-1.001035928726196</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.122908353805542</v>
+        <v>1.588765025138855</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1094414740800858</v>
+        <v>-1.941841959953308</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.5474956631660461</v>
+        <v>-1.065918445587158</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.065961122512817</v>
+        <v>1.496101140975952</v>
       </c>
       <c r="C55" t="n">
-        <v>0.002906814217567444</v>
+        <v>-1.779256463050842</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.6040595769882202</v>
+        <v>-1.021406173706055</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9516727924346924</v>
+        <v>1.451015710830688</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1057860627770424</v>
+        <v>-1.645144462585449</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.6663693785667419</v>
+        <v>-1.032922506332397</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.105401992797852</v>
+        <v>1.449780583381653</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.05639733374118805</v>
+        <v>-1.761428833007812</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.6121810078620911</v>
+        <v>-1.093266010284424</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8859838247299194</v>
+        <v>1.536909461021423</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1787731945514679</v>
+        <v>-1.554118990898132</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.5900443196296692</v>
+        <v>-1.040550231933594</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.921612024307251</v>
+        <v>1.530309677124023</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2325045168399811</v>
+        <v>-1.415381908416748</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.647679328918457</v>
+        <v>-1.045868635177612</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8942992687225342</v>
+        <v>1.513562679290771</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2515676021575928</v>
+        <v>-1.449777722358704</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.6551740169525146</v>
+        <v>-1.078557729721069</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8098882436752319</v>
+        <v>1.6282559633255</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2849580645561218</v>
+        <v>-1.606436371803284</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.6408789753913879</v>
+        <v>-1.21863055229187</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5834282636642456</v>
+        <v>1.585925936698914</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4713101387023926</v>
+        <v>-1.018763542175293</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.7744304537773132</v>
+        <v>-1.035717725753784</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6709010601043701</v>
+        <v>1.183208465576172</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4365313649177551</v>
+        <v>-0.6816728115081787</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.8173350691795349</v>
+        <v>-0.7039467692375183</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7588937282562256</v>
+        <v>1.093123197555542</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4113500714302063</v>
+        <v>-0.5830340385437012</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.8139663338661194</v>
+        <v>-0.6087321639060974</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.711530327796936</v>
+        <v>1.077029585838318</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5013996362686157</v>
+        <v>-0.5407553315162659</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.9118871092796326</v>
+        <v>-0.5803041458129883</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6436679363250732</v>
+        <v>1.023037791252136</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4955852031707764</v>
+        <v>-0.5147554278373718</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.8894711136817932</v>
+        <v>-0.5369028449058533</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6059545278549194</v>
+        <v>1.271283507347107</v>
       </c>
       <c r="C67" t="n">
-        <v>0.562329113483429</v>
+        <v>-0.6740625500679016</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.8777825236320496</v>
+        <v>-0.7248275876045227</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5875649452209473</v>
+        <v>1.22446346282959</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5484282374382019</v>
+        <v>-0.6523317098617554</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.894171416759491</v>
+        <v>-0.6939437985420227</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6064525842666626</v>
+        <v>1.448261141777039</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6696466207504272</v>
+        <v>-0.7963884472846985</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.9047815799713135</v>
+        <v>-0.8683810830116272</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5818672180175781</v>
+        <v>1.488429188728333</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7555232048034668</v>
+        <v>-0.8362045288085938</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.9077968001365662</v>
+        <v>-0.8989829421043396</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5702410936355591</v>
+        <v>1.507827877998352</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7519211769104004</v>
+        <v>-0.8346154689788818</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.8581371307373047</v>
+        <v>-0.8944732546806335</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5122320652008057</v>
+        <v>1.689300537109375</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8807578682899475</v>
+        <v>-0.9760462641716003</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.9875678420066833</v>
+        <v>-1.032262086868286</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.503385066986084</v>
+        <v>1.853971123695374</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9174784421920776</v>
+        <v>-1.105286717414856</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.012733936309814</v>
+        <v>-1.154543876647949</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5285506248474121</v>
+        <v>1.832269787788391</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9288271069526672</v>
+        <v>-1.094998598098755</v>
       </c>
       <c r="D74" t="n">
-        <v>-1.073546051979065</v>
+        <v>-1.173748731613159</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6417226791381836</v>
+        <v>1.893653750419617</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8218098282814026</v>
+        <v>-1.137516856193542</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.02660858631134</v>
+        <v>-1.226608991622925</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6233376264572144</v>
+        <v>2.094467639923096</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9486484527587891</v>
+        <v>-1.262385964393616</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.180351614952087</v>
+        <v>-1.382051467895508</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8018630743026733</v>
+        <v>2.254724979400635</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9165711998939514</v>
+        <v>-1.393336176872253</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.16993260383606</v>
+        <v>-1.611327886581421</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9623302221298218</v>
+        <v>2.217068433761597</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9586337804794312</v>
+        <v>-1.356162428855896</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.152671217918396</v>
+        <v>-1.641324758529663</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.051863312721252</v>
+        <v>2.040295124053955</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7515855431556702</v>
+        <v>-1.162507653236389</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.9714412689208984</v>
+        <v>-1.482671022415161</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.013978123664856</v>
+        <v>1.867345929145813</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7625784277915955</v>
+        <v>-1.188986420631409</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.140843629837036</v>
+        <v>-1.410998344421387</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9628628492355347</v>
+        <v>1.986648082733154</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9489902257919312</v>
+        <v>-1.353143453598022</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.355586767196655</v>
+        <v>-1.551079034805298</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9021399021148682</v>
+        <v>1.93555736541748</v>
       </c>
       <c r="C82" t="n">
-        <v>1.031730055809021</v>
+        <v>-1.392397046089172</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.444981575012207</v>
+        <v>-1.526319980621338</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9742194414138794</v>
+        <v>1.921202659606934</v>
       </c>
       <c r="C83" t="n">
-        <v>1.013548731803894</v>
+        <v>-1.501441597938538</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.477495312690735</v>
+        <v>-1.595089673995972</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.095727205276489</v>
+        <v>1.956529021263123</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9852434396743774</v>
+        <v>-1.412385225296021</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.520675659179688</v>
+        <v>-1.633454084396362</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.257081031799316</v>
+        <v>1.927247881889343</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9387107491493225</v>
+        <v>-1.417515635490417</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.318891882896423</v>
+        <v>-1.635139465332031</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.313599824905396</v>
+        <v>1.876877188682556</v>
       </c>
       <c r="C86" t="n">
-        <v>0.909066915512085</v>
+        <v>-1.342665195465088</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.291288137435913</v>
+        <v>-1.613569498062134</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.373577356338501</v>
+        <v>1.530387043952942</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5919156670570374</v>
+        <v>-1.035876154899597</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.110868573188782</v>
+        <v>-1.307069778442383</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.354606509208679</v>
+        <v>1.120242357254028</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4803137183189392</v>
+        <v>-0.759246289730072</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.095807075500488</v>
+        <v>-0.9866154789924622</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.168407082557678</v>
+        <v>1.343474864959717</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5148317217826843</v>
+        <v>-0.9237421154975891</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.605544924736023</v>
+        <v>-1.193893432617188</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.123809933662415</v>
+        <v>1.349202513694763</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5061203837394714</v>
+        <v>-0.9990969300270081</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.849672794342041</v>
+        <v>-1.255947589874268</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.202108979225159</v>
+        <v>1.345328569412231</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4539430141448975</v>
+        <v>-0.9907199740409851</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.686803936958313</v>
+        <v>-1.207555055618286</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.225766897201538</v>
+        <v>1.279047727584839</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5455641150474548</v>
+        <v>-0.9472056031227112</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.746863484382629</v>
+        <v>-1.142960071563721</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.379507780075073</v>
+        <v>1.222514033317566</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5115276575088501</v>
+        <v>-1.010042786598206</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.603273391723633</v>
+        <v>-1.155413627624512</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.415488004684448</v>
+        <v>1.107916474342346</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4885112643241882</v>
+        <v>-0.9571914672851562</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.60956597328186</v>
+        <v>-1.082602024078369</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.668418645858765</v>
+        <v>0.9749399423599243</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3136249780654907</v>
+        <v>-0.8803415894508362</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.318562150001526</v>
+        <v>-0.9559213519096375</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.505047917366028</v>
+        <v>1.025627970695496</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4932621717453003</v>
+        <v>-0.9106341004371643</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.456442594528198</v>
+        <v>-0.9998411536216736</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.524097204208374</v>
+        <v>1.241469264030457</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5530896782875061</v>
+        <v>-1.082736015319824</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.546425819396973</v>
+        <v>-1.214106798171997</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.746602177619934</v>
+        <v>1.251848101615906</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3325386643409729</v>
+        <v>-1.076784729957581</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.574588298797607</v>
+        <v>-1.208098649978638</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.597850799560547</v>
+        <v>1.072119355201721</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2180691808462143</v>
+        <v>-0.8793204426765442</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.32124388217926</v>
+        <v>-1.001631498336792</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.867456316947937</v>
+        <v>0.9252092838287354</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1760141849517822</v>
+        <v>-0.7550980448722839</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.210872888565063</v>
+        <v>-0.8415616154670715</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.927188396453857</v>
+        <v>0.8951809406280518</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2519353032112122</v>
+        <v>-0.9653275609016418</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.388536810874939</v>
+        <v>-0.9038275480270386</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.989207983016968</v>
+        <v>0.7384977340698242</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1034279018640518</v>
+        <v>-0.8076415657997131</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.198923945426941</v>
+        <v>-0.7318584322929382</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.095957517623901</v>
+        <v>0.8049051761627197</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1325776875019073</v>
+        <v>-0.9058388471603394</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.33022403717041</v>
+        <v>-0.8431978821754456</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.118951559066772</v>
+        <v>0.7532637119293213</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0943576768040657</v>
+        <v>-0.7736412882804871</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.41804051399231</v>
+        <v>-0.8140210509300232</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.115745306015015</v>
+        <v>0.7279084920883179</v>
       </c>
       <c r="C105" t="n">
-        <v>0.05656412243843079</v>
+        <v>-0.7323539853096008</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.453176975250244</v>
+        <v>-0.7914338707923889</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.137126207351685</v>
+        <v>0.7080191373825073</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04685588181018829</v>
+        <v>-0.7598258852958679</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.447009325027466</v>
+        <v>-0.8286839127540588</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.154826879501343</v>
+        <v>0.6572353839874268</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.05500079691410065</v>
+        <v>-0.7549758553504944</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.499045968055725</v>
+        <v>-0.8028233647346497</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.250550031661987</v>
+        <v>0.3430866003036499</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.335381805896759</v>
+        <v>-0.6536220908164978</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.580115437507629</v>
+        <v>-0.5620620846748352</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.100611925125122</v>
+        <v>0.3787945508956909</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.1741301268339157</v>
+        <v>-0.5175678730010986</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.328714847564697</v>
+        <v>-0.5479985475540161</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.094765186309814</v>
+        <v>0.3949635922908783</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.2337059527635574</v>
+        <v>-0.65776127576828</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.31916868686676</v>
+        <v>-0.5472092032432556</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.081545114517212</v>
+        <v>0.5695129036903381</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.3318576812744141</v>
+        <v>-0.8431901335716248</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.517853975296021</v>
+        <v>-0.7248188853263855</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.024512052536011</v>
+        <v>0.5376152992248535</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.3673968911170959</v>
+        <v>-0.8416493535041809</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.638014435768127</v>
+        <v>-0.7082114815711975</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.055992126464844</v>
+        <v>0.4909582436084747</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.4521355032920837</v>
+        <v>-0.8801124095916748</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.760056853294373</v>
+        <v>-0.6783888339996338</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.998942136764526</v>
+        <v>0.4374443888664246</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.4810050129890442</v>
+        <v>-0.935180127620697</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.753547430038452</v>
+        <v>-0.6590927243232727</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.858057618141174</v>
+        <v>0.4684148132801056</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.4987925291061401</v>
+        <v>-1.033562898635864</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.862156391143799</v>
+        <v>-0.7246423959732056</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.860170841217041</v>
+        <v>0.6203633546829224</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.5465832948684692</v>
+        <v>-1.278156876564026</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.968960046768188</v>
+        <v>-0.8986037373542786</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.882456302642822</v>
+        <v>0.6192247867584229</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.5169907808303833</v>
+        <v>-1.259265542030334</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.880903244018555</v>
+        <v>-0.8639599680900574</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.965904474258423</v>
+        <v>0.6161630153656006</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.5537899136543274</v>
+        <v>-1.316559553146362</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.948806405067444</v>
+        <v>-0.8784671425819397</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.894336700439453</v>
+        <v>0.6816014051437378</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.5503445863723755</v>
+        <v>-1.291853904724121</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.959996700286865</v>
+        <v>-0.9598345160484314</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.862519264221191</v>
+        <v>0.7051751613616943</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.5625487565994263</v>
+        <v>-1.346797585487366</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.949676275253296</v>
+        <v>-0.9719614386558533</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.14968466758728</v>
+        <v>0.6697776317596436</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.65914386510849</v>
+        <v>-1.537694454193115</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.122407913208008</v>
+        <v>-1.023279190063477</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2.138062238693237</v>
+        <v>0.6719353199005127</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.6698313355445862</v>
+        <v>-1.681101322174072</v>
       </c>
       <c r="D122" t="n">
-        <v>-2.074526309967041</v>
+        <v>-1.104753732681274</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.060049295425415</v>
+        <v>0.7772879600524902</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.6283884644508362</v>
+        <v>-1.58249843120575</v>
       </c>
       <c r="D123" t="n">
-        <v>-2.080207824707031</v>
+        <v>-1.125752925872803</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.991013526916504</v>
+        <v>0.7121049165725708</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.635475754737854</v>
+        <v>-1.462257504463196</v>
       </c>
       <c r="D124" t="n">
-        <v>-2.004837512969971</v>
+        <v>-1.057655811309814</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.947823166847229</v>
+        <v>0.6958632469177246</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.6243572235107422</v>
+        <v>-1.473331332206726</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.977511048316956</v>
+        <v>-1.062474489212036</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.934730291366577</v>
+        <v>0.8220813274383545</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.6512508988380432</v>
+        <v>-1.549899816513062</v>
       </c>
       <c r="D126" t="n">
-        <v>-2.133143663406372</v>
+        <v>-1.153786420822144</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2.054542064666748</v>
+        <v>0.9799830913543701</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.6959797739982605</v>
+        <v>-1.770130515098572</v>
       </c>
       <c r="D127" t="n">
-        <v>-2.133141279220581</v>
+        <v>-1.339702606201172</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.119248151779175</v>
+        <v>1.012600183486938</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.7113654017448425</v>
+        <v>-1.839238405227661</v>
       </c>
       <c r="D128" t="n">
-        <v>-2.109015464782715</v>
+        <v>-1.366541147232056</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.139919757843018</v>
+        <v>0.9642473459243774</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.7058632969856262</v>
+        <v>-1.74513852596283</v>
       </c>
       <c r="D129" t="n">
-        <v>-2.128501415252686</v>
+        <v>-1.331534385681152</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.227530241012573</v>
+        <v>0.9914023876190186</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.7237106561660767</v>
+        <v>-1.931089639663696</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.140753984451294</v>
+        <v>-1.435153484344482</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.409731864929199</v>
+        <v>0.9935848712921143</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.7605178952217102</v>
+        <v>-2.063364028930664</v>
       </c>
       <c r="D131" t="n">
-        <v>-2.051362037658691</v>
+        <v>-1.45746922492981</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.502472162246704</v>
+        <v>1.057054162025452</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.7927349209785461</v>
+        <v>-2.162977695465088</v>
       </c>
       <c r="D132" t="n">
-        <v>-2.0571448802948</v>
+        <v>-1.528014898300171</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.371941804885864</v>
+        <v>1.098433256149292</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.7566292285919189</v>
+        <v>-2.180349349975586</v>
       </c>
       <c r="D133" t="n">
-        <v>-2.257391214370728</v>
+        <v>-1.580354690551758</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2.245305061340332</v>
+        <v>1.140106678009033</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.7446570992469788</v>
+        <v>-2.073547840118408</v>
       </c>
       <c r="D134" t="n">
-        <v>-2.312194108963013</v>
+        <v>-1.590481281280518</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.215878248214722</v>
+        <v>1.377793788909912</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.7456814050674438</v>
+        <v>-2.26411509513855</v>
       </c>
       <c r="D135" t="n">
-        <v>-2.46090841293335</v>
+        <v>-1.827955484390259</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2.406137704849243</v>
+        <v>1.465765237808228</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.7668793201446533</v>
+        <v>-2.455999612808228</v>
       </c>
       <c r="D136" t="n">
-        <v>-2.431619644165039</v>
+        <v>-1.968019485473633</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2.510421752929688</v>
+        <v>1.48705267906189</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.8059923052787781</v>
+        <v>-2.555596828460693</v>
       </c>
       <c r="D137" t="n">
-        <v>-2.437516689300537</v>
+        <v>-2.027287721633911</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2.371706485748291</v>
+        <v>1.581286311149597</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.7081500887870789</v>
+        <v>-2.783704996109009</v>
       </c>
       <c r="D138" t="n">
-        <v>-2.587851047515869</v>
+        <v>-2.175989389419556</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.230513334274292</v>
+        <v>1.664461731910706</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.5172811150550842</v>
+        <v>-2.848595857620239</v>
       </c>
       <c r="D139" t="n">
-        <v>-2.737181901931763</v>
+        <v>-2.283503770828247</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2.208359956741333</v>
+        <v>1.708300828933716</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.5011698007583618</v>
+        <v>-2.913485527038574</v>
       </c>
       <c r="D140" t="n">
-        <v>-2.768615245819092</v>
+        <v>-2.366135597229004</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2.538369178771973</v>
+        <v>1.696589112281799</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.7621832489967346</v>
+        <v>-3.097583532333374</v>
       </c>
       <c r="D141" t="n">
-        <v>-2.708658218383789</v>
+        <v>-2.44890022277832</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.694767475128174</v>
+        <v>1.749904036521912</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.8469465374946594</v>
+        <v>-3.363139152526855</v>
       </c>
       <c r="D142" t="n">
-        <v>-2.77759313583374</v>
+        <v>-2.562681436538696</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2.586482286453247</v>
+        <v>1.8251713514328</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.7957584261894226</v>
+        <v>-3.346419095993042</v>
       </c>
       <c r="D143" t="n">
-        <v>-2.909125566482544</v>
+        <v>-2.625858068466187</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2.653592586517334</v>
+        <v>2.032505750656128</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.7129068374633789</v>
+        <v>-3.541616201400757</v>
       </c>
       <c r="D144" t="n">
-        <v>-2.965031623840332</v>
+        <v>-2.758656978607178</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2.676716089248657</v>
+        <v>2.311591148376465</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.5575617551803589</v>
+        <v>-3.775018453598022</v>
       </c>
       <c r="D145" t="n">
-        <v>-3.114530563354492</v>
+        <v>-3.038242101669312</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2.664466857910156</v>
+        <v>2.356230497360229</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.5649861097335815</v>
+        <v>-3.834894895553589</v>
       </c>
       <c r="D146" t="n">
-        <v>-3.10509991645813</v>
+        <v>-3.061668157577515</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2.777383089065552</v>
+        <v>2.250455617904663</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.6529311537742615</v>
+        <v>-3.651898860931396</v>
       </c>
       <c r="D147" t="n">
-        <v>-3.063712120056152</v>
+        <v>-2.927091836929321</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2.751320838928223</v>
+        <v>2.127492427825928</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.7186872363090515</v>
+        <v>-3.611593008041382</v>
       </c>
       <c r="D148" t="n">
-        <v>-2.917827367782593</v>
+        <v>-2.805644035339355</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.77143120765686</v>
+        <v>2.202122211456299</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.6045436859130859</v>
+        <v>-3.61016321182251</v>
       </c>
       <c r="D149" t="n">
-        <v>-3.055899143218994</v>
+        <v>-2.850866079330444</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2.934241771697998</v>
+        <v>2.159205675125122</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.7408345341682434</v>
+        <v>-3.712733030319214</v>
       </c>
       <c r="D150" t="n">
-        <v>-2.984146356582642</v>
+        <v>-2.912238836288452</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.164845705032349</v>
+        <v>2.201786279678345</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.9324449896812439</v>
+        <v>-3.931129455566406</v>
       </c>
       <c r="D151" t="n">
-        <v>-2.939590454101562</v>
+        <v>-3.045070886611938</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.160810470581055</v>
+        <v>2.321334600448608</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.9068151116371155</v>
+        <v>-4.035546779632568</v>
       </c>
       <c r="D152" t="n">
-        <v>-3.059440851211548</v>
+        <v>-3.183124780654907</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.196191549301147</v>
+        <v>2.406126976013184</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.8938212990760803</v>
+        <v>-4.240977764129639</v>
       </c>
       <c r="D153" t="n">
-        <v>-3.155556678771973</v>
+        <v>-3.329395055770874</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.60678768157959</v>
+        <v>2.665231466293335</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.080851316452026</v>
+        <v>-4.502098560333252</v>
       </c>
       <c r="D154" t="n">
-        <v>-3.563441038131714</v>
+        <v>-3.567832231521606</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.585110902786255</v>
+        <v>2.613844394683838</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.058347105979919</v>
+        <v>-4.399537563323975</v>
       </c>
       <c r="D155" t="n">
-        <v>-3.503291130065918</v>
+        <v>-3.483270883560181</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.720172166824341</v>
+        <v>2.544734239578247</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.121106028556824</v>
+        <v>-4.270505905151367</v>
       </c>
       <c r="D156" t="n">
-        <v>-3.457801818847656</v>
+        <v>-3.44163966178894</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.509290456771851</v>
+        <v>2.482495307922363</v>
       </c>
       <c r="C157" t="n">
-        <v>-1.039052963256836</v>
+        <v>-4.251992702484131</v>
       </c>
       <c r="D157" t="n">
-        <v>-3.177258253097534</v>
+        <v>-3.443943738937378</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.386200428009033</v>
+        <v>2.355098485946655</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.006986737251282</v>
+        <v>-3.98715615272522</v>
       </c>
       <c r="D158" t="n">
-        <v>-3.259794950485229</v>
+        <v>-3.300779104232788</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.313428163528442</v>
+        <v>2.390397071838379</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.898395836353302</v>
+        <v>-3.948941469192505</v>
       </c>
       <c r="D159" t="n">
-        <v>-3.215878963470459</v>
+        <v>-3.236641645431519</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.068010330200195</v>
+        <v>2.540359258651733</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.6393877267837524</v>
+        <v>-3.881011247634888</v>
       </c>
       <c r="D160" t="n">
-        <v>-3.129066705703735</v>
+        <v>-3.276330232620239</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.14627480506897</v>
+        <v>2.432891607284546</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.7743510007858276</v>
+        <v>-3.919429540634155</v>
       </c>
       <c r="D161" t="n">
-        <v>-3.120856761932373</v>
+        <v>-3.243616819381714</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.093344449996948</v>
+        <v>2.424493551254272</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.7925317883491516</v>
+        <v>-4.007009029388428</v>
       </c>
       <c r="D162" t="n">
-        <v>-3.053508758544922</v>
+        <v>-3.24695348739624</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2.913681507110596</v>
+        <v>2.634824514389038</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.5664830803871155</v>
+        <v>-3.994422197341919</v>
       </c>
       <c r="D163" t="n">
-        <v>-3.22625994682312</v>
+        <v>-3.396247148513794</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.030044317245483</v>
+        <v>2.764693975448608</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.5458564162254333</v>
+        <v>-4.114762783050537</v>
       </c>
       <c r="D164" t="n">
-        <v>-3.177077293395996</v>
+        <v>-3.514208555221558</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.785842180252075</v>
+        <v>2.700193881988525</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.3945473432540894</v>
+        <v>-3.878212928771973</v>
       </c>
       <c r="D165" t="n">
-        <v>-3.255836009979248</v>
+        <v>-3.362723588943481</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2.641855955123901</v>
+        <v>2.722861051559448</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.321606457233429</v>
+        <v>-3.789708614349365</v>
       </c>
       <c r="D166" t="n">
-        <v>-3.282044172286987</v>
+        <v>-3.358306646347046</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.349281549453735</v>
+        <v>2.711759805679321</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.1829301565885544</v>
+        <v>-3.735761642456055</v>
       </c>
       <c r="D167" t="n">
-        <v>-3.413933277130127</v>
+        <v>-3.336094379425049</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2.330299377441406</v>
+        <v>2.716701745986938</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.2026196867227554</v>
+        <v>-3.693200826644897</v>
       </c>
       <c r="D168" t="n">
-        <v>-3.413594245910645</v>
+        <v>-3.294849634170532</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2.329957246780396</v>
+        <v>2.763034105300903</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.0733538419008255</v>
+        <v>-3.605427026748657</v>
       </c>
       <c r="D169" t="n">
-        <v>-3.498946189880371</v>
+        <v>-3.346081256866455</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.229072093963623</v>
+        <v>2.790590047836304</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.01590828597545624</v>
+        <v>-3.411936521530151</v>
       </c>
       <c r="D170" t="n">
-        <v>-3.405869007110596</v>
+        <v>-3.283256769180298</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2.174641132354736</v>
+        <v>2.794153690338135</v>
       </c>
       <c r="C171" t="n">
-        <v>0.04486642777919769</v>
+        <v>-3.316097497940063</v>
       </c>
       <c r="D171" t="n">
-        <v>-3.342690944671631</v>
+        <v>-3.252606153488159</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2.11567234992981</v>
+        <v>2.783126592636108</v>
       </c>
       <c r="C172" t="n">
-        <v>0.09588569402694702</v>
+        <v>-3.389348030090332</v>
       </c>
       <c r="D172" t="n">
-        <v>-3.66667914390564</v>
+        <v>-3.33909010887146</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.195580720901489</v>
+        <v>2.528183460235596</v>
       </c>
       <c r="C173" t="n">
-        <v>0.06150148808956146</v>
+        <v>-3.22522234916687</v>
       </c>
       <c r="D173" t="n">
-        <v>-3.592490673065186</v>
+        <v>-3.113782405853271</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.383768320083618</v>
+        <v>2.51335334777832</v>
       </c>
       <c r="C174" t="n">
-        <v>0.07684615254402161</v>
+        <v>-3.247971057891846</v>
       </c>
       <c r="D174" t="n">
-        <v>-3.573450088500977</v>
+        <v>-3.112813234329224</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2.2444908618927</v>
+        <v>2.271211385726929</v>
       </c>
       <c r="C175" t="n">
-        <v>0.1314138323068619</v>
+        <v>-3.065133094787598</v>
       </c>
       <c r="D175" t="n">
-        <v>-3.553389310836792</v>
+        <v>-2.959789752960205</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.970640540122986</v>
+        <v>2.128906011581421</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1898845732212067</v>
+        <v>-2.922689199447632</v>
       </c>
       <c r="D176" t="n">
-        <v>-3.293818473815918</v>
+        <v>-2.824544191360474</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.723668932914734</v>
+        <v>2.133812665939331</v>
       </c>
       <c r="C177" t="n">
-        <v>0.5736056566238403</v>
+        <v>-2.850161552429199</v>
       </c>
       <c r="D177" t="n">
-        <v>-3.404219150543213</v>
+        <v>-2.833027124404907</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.087077617645264</v>
+        <v>2.243835210800171</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3708588480949402</v>
+        <v>-2.941010713577271</v>
       </c>
       <c r="D178" t="n">
-        <v>-3.662781238555908</v>
+        <v>-2.928984880447388</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.840643525123596</v>
+        <v>2.396522760391235</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4192807078361511</v>
+        <v>-2.922276258468628</v>
       </c>
       <c r="D179" t="n">
-        <v>-3.595216751098633</v>
+        <v>-3.019428491592407</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.935259580612183</v>
+        <v>2.346074342727661</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3545823693275452</v>
+        <v>-2.874023199081421</v>
       </c>
       <c r="D180" t="n">
-        <v>-3.516541481018066</v>
+        <v>-2.921062707901001</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.920589089393616</v>
+        <v>2.444579839706421</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4008700251579285</v>
+        <v>-2.840613603591919</v>
       </c>
       <c r="D181" t="n">
-        <v>-3.453348636627197</v>
+        <v>-2.998250007629395</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.872004151344299</v>
+        <v>2.487915277481079</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3125489354133606</v>
+        <v>-2.836012363433838</v>
       </c>
       <c r="D182" t="n">
-        <v>-3.451898574829102</v>
+        <v>-3.018972873687744</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1.829105496406555</v>
+        <v>2.413089036941528</v>
       </c>
       <c r="C183" t="n">
-        <v>0.1613330245018005</v>
+        <v>-2.691158056259155</v>
       </c>
       <c r="D183" t="n">
-        <v>-3.296931266784668</v>
+        <v>-2.858773946762085</v>
       </c>
     </row>
   </sheetData>
